--- a/biology/Zoologie/Craugastor_fitzingeri/Craugastor_fitzingeri.xlsx
+++ b/biology/Zoologie/Craugastor_fitzingeri/Craugastor_fitzingeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor fitzingeri est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor fitzingeri est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer à 1 200 m d'altitude dans le nord-est du Honduras, dans l'est du Nicaragua, au Costa Rica, au Panama et en Colombie dans les départements de Chocó, dans l'Ouest d'Antioquia et dans le Nord de Valle del Cauca[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer à 1 200 m d'altitude dans le nord-est du Honduras, dans l'est du Nicaragua, au Costa Rica, au Panama et en Colombie dans les départements de Chocó, dans l'Ouest d'Antioquia et dans le Nord de Valle del Cauca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 23,5 à 35,0 mm et les femelles jusqu'à 52,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 23,5 à 35,0 mm et les femelles jusqu'à 52,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Leopold Fitzinger.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1857 : Diagnosen neuer frösche des zoologischen cabinets zu krakau. Sitzungberichte der Mathematisch-Naturwissenschaftlichen Classe der Kaiserlichen Akademie der Wissenschaften, vol. 24, p. 10-15 (texte intégral).</t>
         </is>
